--- a/zoho_mail/input_file.xlsx
+++ b/zoho_mail/input_file.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Subject</t>
   </si>
@@ -66,12 +66,6 @@
   </si>
   <si>
     <t>The excel file name has to be input_file.xlsx</t>
-  </si>
-  <si>
-    <t>Start Datetime</t>
-  </si>
-  <si>
-    <t>End Datetime</t>
   </si>
   <si>
     <t>Email Interval</t>
@@ -158,7 +152,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -166,7 +160,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -451,31 +444,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="26.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.44140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="16.109375" customWidth="1"/>
     <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -484,80 +475,68 @@
       <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5">
-        <v>44994.458333333336</v>
-      </c>
-      <c r="F2" s="5">
-        <v>44996.5</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="E2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I6" s="1" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I7" s="1" t="s">
-        <v>16</v>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/zoho_mail/input_file.xlsx
+++ b/zoho_mail/input_file.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="23040" windowHeight="9180"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="23040" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="Email" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Subject</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>Email Interval is in minutes</t>
+  </si>
+  <si>
+    <t>Attachment</t>
+  </si>
+  <si>
+    <t>C:\Users\Rishikesh.Shendkar\Pictures\Video Projects\IMG_0448.MOV</t>
   </si>
 </sst>
 </file>
@@ -152,7 +158,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -163,6 +169,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -444,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,9 +464,10 @@
     <col min="3" max="3" width="16.109375" customWidth="1"/>
     <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -475,8 +483,11 @@
       <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="F1" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -492,50 +503,53 @@
       <c r="E2" s="3">
         <v>0.1</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G6" s="1" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G7" s="1" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
